--- a/Seewo/list.xlsx
+++ b/Seewo/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25904"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\编程\郑博的小程序For Seewo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\编程\server.github.io\Seewo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243EC638-45E7-471C-98D5-7A32E13654B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9E835-83C0-4F74-8BF2-F3E0812C2FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>白宜千忱</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王涵玉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -192,7 +196,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -206,139 +210,23 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,347 +504,355 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A2" s="5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A24" s="1">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A25" s="1">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="1">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="1">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="1">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="1">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="1">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A31" s="1">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A32" s="1">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A33" s="1">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A34" s="1">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A35" s="1">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A36" s="1">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A37" s="1">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A38" s="1">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A39" s="1">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A40" s="1">
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="4" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>40</v>
       </c>
     </row>

--- a/Seewo/list.xlsx
+++ b/Seewo/list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25904"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\编程\server.github.io\Seewo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA9E835-83C0-4F74-8BF2-F3E0812C2FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9CD6DE-0B0E-48EA-A82C-DF2F855F3614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15563" yWindow="0" windowWidth="17999" windowHeight="10553" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名单" sheetId="1" r:id="rId1"/>
@@ -216,7 +216,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -224,9 +224,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -506,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -692,8 +689,8 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>43</v>
+      <c r="B23" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
@@ -701,7 +698,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -709,7 +706,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -717,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -725,7 +722,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -733,7 +730,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -741,7 +738,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -749,7 +746,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.15">
@@ -757,7 +754,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
@@ -765,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -773,7 +770,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -781,7 +778,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -789,7 +786,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -797,7 +794,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -805,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -813,7 +810,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -821,7 +818,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -829,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -837,7 +834,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
@@ -845,15 +842,15 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>40</v>
+      <c r="B43" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
